--- a/Code/Results/Cases/Case_0_165/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_165/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.57287970496741</v>
+        <v>13.67358826315247</v>
       </c>
       <c r="D2">
-        <v>5.868875472583093</v>
+        <v>8.289104047263637</v>
       </c>
       <c r="E2">
-        <v>9.296792135723557</v>
+        <v>14.29759936453496</v>
       </c>
       <c r="F2">
-        <v>27.18514483005041</v>
+        <v>40.38405106556283</v>
       </c>
       <c r="G2">
-        <v>2.103920840035071</v>
+        <v>3.701267103280734</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.320209465308083</v>
+        <v>11.01246239226328</v>
       </c>
       <c r="K2">
-        <v>20.29760491261999</v>
+        <v>18.97621323937035</v>
       </c>
       <c r="L2">
-        <v>5.505975397647549</v>
+        <v>9.726146552788437</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.77565407138591</v>
+        <v>18.59642389487522</v>
       </c>
       <c r="O2">
-        <v>19.765848391051</v>
+        <v>30.97852337568994</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.16413462617624</v>
+        <v>13.63073567210559</v>
       </c>
       <c r="D3">
-        <v>5.659425577419907</v>
+        <v>8.263786884984988</v>
       </c>
       <c r="E3">
-        <v>9.09708413645297</v>
+        <v>14.29744455838229</v>
       </c>
       <c r="F3">
-        <v>26.71325155774189</v>
+        <v>40.45339490845652</v>
       </c>
       <c r="G3">
-        <v>2.11045522987014</v>
+        <v>3.703764472672328</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.320267703536228</v>
+        <v>11.03460911040082</v>
       </c>
       <c r="K3">
-        <v>19.04635667238917</v>
+        <v>18.62835538780363</v>
       </c>
       <c r="L3">
-        <v>5.500260891741545</v>
+        <v>9.739788378274355</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.89881405934497</v>
+        <v>18.64288455990328</v>
       </c>
       <c r="O3">
-        <v>19.59594563212363</v>
+        <v>31.06384755377812</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.911216385252979</v>
+        <v>13.6071832990912</v>
       </c>
       <c r="D4">
-        <v>5.528786764544813</v>
+        <v>8.249241341407334</v>
       </c>
       <c r="E4">
-        <v>8.976987827208069</v>
+        <v>14.29952732620293</v>
       </c>
       <c r="F4">
-        <v>26.44530834525501</v>
+        <v>40.50552379822315</v>
       </c>
       <c r="G4">
-        <v>2.11458749314847</v>
+        <v>3.705379283747629</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.323091584068391</v>
+        <v>11.04947621960687</v>
       </c>
       <c r="K4">
-        <v>18.23988569006473</v>
+        <v>18.41404032335869</v>
       </c>
       <c r="L4">
-        <v>5.498368611888957</v>
+        <v>9.748995781158044</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.97824481005663</v>
+        <v>18.67332379251888</v>
       </c>
       <c r="O4">
-        <v>19.51012437565819</v>
+        <v>31.12311698055277</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.807807933433006</v>
+        <v>13.59828632267558</v>
       </c>
       <c r="D5">
-        <v>5.475112849917595</v>
+        <v>8.243569005079978</v>
       </c>
       <c r="E5">
-        <v>8.92872891695122</v>
+        <v>14.30092493078742</v>
       </c>
       <c r="F5">
-        <v>26.34155591096342</v>
+        <v>40.5291628740659</v>
       </c>
       <c r="G5">
-        <v>2.116302503341822</v>
+        <v>3.706057872465073</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.324926719290424</v>
+        <v>11.0558540658845</v>
       </c>
       <c r="K5">
-        <v>17.9017836512193</v>
+        <v>18.32663210825692</v>
       </c>
       <c r="L5">
-        <v>5.497999246964355</v>
+        <v>9.752957326457066</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.01155831382022</v>
+        <v>18.6862097565437</v>
       </c>
       <c r="O5">
-        <v>19.47965582187179</v>
+        <v>31.14899517283063</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.790620961527619</v>
+        <v>13.59685150236846</v>
       </c>
       <c r="D6">
-        <v>5.466176223933454</v>
+        <v>8.242642631951226</v>
       </c>
       <c r="E6">
-        <v>8.920758060665966</v>
+        <v>14.30119018388234</v>
       </c>
       <c r="F6">
-        <v>26.32465458179929</v>
+        <v>40.53323266501042</v>
       </c>
       <c r="G6">
-        <v>2.116589181333651</v>
+        <v>3.706171794155473</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.325272292878868</v>
+        <v>11.05693240061442</v>
       </c>
       <c r="K6">
-        <v>17.84507601089278</v>
+        <v>18.31211688838039</v>
       </c>
       <c r="L6">
-        <v>5.497962041002191</v>
+        <v>9.753627800926964</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.01714670465699</v>
+        <v>18.68837858289011</v>
       </c>
       <c r="O6">
-        <v>19.47486409885132</v>
+        <v>31.15339629839092</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.909822962797197</v>
+        <v>13.60706046516416</v>
       </c>
       <c r="D7">
-        <v>5.528064567412236</v>
+        <v>8.249163804560594</v>
       </c>
       <c r="E7">
-        <v>8.976334170959808</v>
+        <v>14.29954395098973</v>
       </c>
       <c r="F7">
-        <v>26.4438871639239</v>
+        <v>40.5058329093181</v>
       </c>
       <c r="G7">
-        <v>2.114610495411222</v>
+        <v>3.705388352177326</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.323113584208244</v>
+        <v>11.04956093993566</v>
       </c>
       <c r="K7">
-        <v>18.23536399686819</v>
+        <v>18.41286165438265</v>
       </c>
       <c r="L7">
-        <v>5.49836201004708</v>
+        <v>9.749048359311011</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.97869027833358</v>
+        <v>18.6734956254477</v>
       </c>
       <c r="O7">
-        <v>19.50969542998833</v>
+        <v>31.12345900307572</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.43243229723607</v>
+        <v>13.65824439424625</v>
       </c>
       <c r="D8">
-        <v>5.797122029202185</v>
+        <v>8.280169632018088</v>
       </c>
       <c r="E8">
-        <v>9.227436445932344</v>
+        <v>14.29709477215297</v>
       </c>
       <c r="F8">
-        <v>27.01788892267755</v>
+        <v>40.40597521175071</v>
       </c>
       <c r="G8">
-        <v>2.106149506885939</v>
+        <v>3.702111338916336</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.31964073200981</v>
+        <v>11.01983539197326</v>
       </c>
       <c r="K8">
-        <v>19.87417720940056</v>
+        <v>18.85648855027079</v>
       </c>
       <c r="L8">
-        <v>5.503666701197134</v>
+        <v>9.730677980836118</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.81732040716678</v>
+        <v>18.61204718840844</v>
       </c>
       <c r="O8">
-        <v>19.70334037015744</v>
+        <v>31.00651248956358</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.43614690604906</v>
+        <v>13.78017158702268</v>
       </c>
       <c r="D9">
-        <v>6.305702650401736</v>
+        <v>8.348725397278269</v>
       </c>
       <c r="E9">
-        <v>9.737889004368945</v>
+        <v>14.30951159652516</v>
       </c>
       <c r="F9">
-        <v>28.31778578843269</v>
+        <v>40.28616645186906</v>
       </c>
       <c r="G9">
-        <v>2.090468640441764</v>
+        <v>3.696328055412074</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.335718360418453</v>
+        <v>10.97159909399153</v>
       </c>
       <c r="K9">
-        <v>22.92684464699063</v>
+        <v>19.71594459172837</v>
       </c>
       <c r="L9">
-        <v>5.527109655501197</v>
+        <v>9.701230751768215</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.531785111992</v>
+        <v>18.50667998016993</v>
       </c>
       <c r="O9">
-        <v>20.23598347113425</v>
+        <v>30.83196895189689</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.15429972525492</v>
+        <v>13.88239416112919</v>
       </c>
       <c r="D10">
-        <v>6.664424614289538</v>
+        <v>8.40357336993042</v>
       </c>
       <c r="E10">
-        <v>10.12139019397375</v>
+        <v>14.32904139564084</v>
       </c>
       <c r="F10">
-        <v>29.38012300004269</v>
+        <v>40.24474690853583</v>
       </c>
       <c r="G10">
-        <v>2.079440795489174</v>
+        <v>3.692466726659435</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.362564162771996</v>
+        <v>10.9422723073727</v>
       </c>
       <c r="K10">
-        <v>25.01333277221039</v>
+        <v>20.3349151358831</v>
       </c>
       <c r="L10">
-        <v>5.552586051514976</v>
+        <v>9.683580210497825</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.34192868306558</v>
+        <v>18.43843880759392</v>
       </c>
       <c r="O10">
-        <v>20.72823706539014</v>
+        <v>30.73739041282923</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.47580707118519</v>
+        <v>13.9315228647973</v>
       </c>
       <c r="D11">
-        <v>6.823822318420894</v>
+        <v>8.429441506685755</v>
       </c>
       <c r="E11">
-        <v>10.297218787995</v>
+        <v>14.34016247333653</v>
       </c>
       <c r="F11">
-        <v>29.88679885554254</v>
+        <v>40.23606364546801</v>
       </c>
       <c r="G11">
-        <v>2.074515998485007</v>
+        <v>3.690793368035108</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.378283516920708</v>
+        <v>10.93025421092351</v>
       </c>
       <c r="K11">
-        <v>25.91325652323037</v>
+        <v>20.61258793983411</v>
       </c>
       <c r="L11">
-        <v>5.566035508108274</v>
+        <v>9.676410270997026</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.26017042904816</v>
+        <v>18.40937484329884</v>
       </c>
       <c r="O11">
-        <v>20.97556023139689</v>
+        <v>30.70172267864775</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.59674528810231</v>
+        <v>13.95049325150053</v>
       </c>
       <c r="D12">
-        <v>6.883601041601099</v>
+        <v>8.439363962761004</v>
       </c>
       <c r="E12">
-        <v>10.36396322253109</v>
+        <v>14.34469302957848</v>
       </c>
       <c r="F12">
-        <v>30.0820341022031</v>
+        <v>40.23423804157484</v>
       </c>
       <c r="G12">
-        <v>2.072662972335628</v>
+        <v>3.690171602203706</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.384760994470648</v>
+        <v>10.92589317127829</v>
       </c>
       <c r="K12">
-        <v>26.24705964468067</v>
+        <v>20.71708050054399</v>
       </c>
       <c r="L12">
-        <v>5.571401643373649</v>
+        <v>9.673818329390745</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.22990141712415</v>
+        <v>18.39865289741028</v>
       </c>
       <c r="O12">
-        <v>21.07268896560362</v>
+        <v>30.6892776800666</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.5707359403659</v>
+        <v>13.94639153011275</v>
       </c>
       <c r="D13">
-        <v>6.87075301635949</v>
+        <v>8.437221431116818</v>
       </c>
       <c r="E13">
-        <v>10.3495819203587</v>
+        <v>14.34370313539469</v>
       </c>
       <c r="F13">
-        <v>30.03983682840277</v>
+        <v>40.2345661522551</v>
       </c>
       <c r="G13">
-        <v>2.073061548052011</v>
+        <v>3.690304982387393</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.383342272588154</v>
+        <v>10.92682395531111</v>
       </c>
       <c r="K13">
-        <v>26.17547788294953</v>
+        <v>20.69460679982938</v>
       </c>
       <c r="L13">
-        <v>5.570233710636829</v>
+        <v>9.67437107959101</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.23638916580257</v>
+        <v>18.40094944215613</v>
       </c>
       <c r="O13">
-        <v>21.05161442138057</v>
+        <v>30.69191066225563</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.48577326831411</v>
+        <v>13.93307629362988</v>
       </c>
       <c r="D14">
-        <v>6.828752197480979</v>
+        <v>8.430255323035286</v>
       </c>
       <c r="E14">
-        <v>10.30270683151214</v>
+        <v>14.34052882135024</v>
       </c>
       <c r="F14">
-        <v>29.9027934508112</v>
+        <v>40.23588413332364</v>
       </c>
       <c r="G14">
-        <v>2.074363318576551</v>
+        <v>3.690741976872415</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.378805782443467</v>
+        <v>10.92989162018156</v>
       </c>
       <c r="K14">
-        <v>25.94085797157183</v>
+        <v>20.62119828217447</v>
       </c>
       <c r="L14">
-        <v>5.566471476401325</v>
+        <v>9.676194564530977</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.2576661542464</v>
+        <v>18.4084870554154</v>
       </c>
       <c r="O14">
-        <v>20.98348086538616</v>
+        <v>30.70067752486339</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.43362410744735</v>
+        <v>13.92496769733719</v>
       </c>
       <c r="D15">
-        <v>6.80294873753043</v>
+        <v>8.426004731244481</v>
       </c>
       <c r="E15">
-        <v>10.27401461417986</v>
+        <v>14.33862596226517</v>
       </c>
       <c r="F15">
-        <v>29.81928916665861</v>
+        <v>40.23688193940313</v>
       </c>
       <c r="G15">
-        <v>2.075162197881069</v>
+        <v>3.691011196341382</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.376096032818913</v>
+        <v>10.93179538292256</v>
       </c>
       <c r="K15">
-        <v>25.79624077060192</v>
+        <v>20.57614526260617</v>
       </c>
       <c r="L15">
-        <v>5.564202738913858</v>
+        <v>9.677327528112974</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.27078982287974</v>
+        <v>18.41314101984465</v>
       </c>
       <c r="O15">
-        <v>20.94220249839755</v>
+        <v>30.70618583816649</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.13317829637525</v>
+        <v>13.87923539133472</v>
       </c>
       <c r="D16">
-        <v>6.653928063972388</v>
+        <v>8.401900849731755</v>
       </c>
       <c r="E16">
-        <v>10.1099238590532</v>
+        <v>14.32835941714247</v>
       </c>
       <c r="F16">
-        <v>29.34748169796295</v>
+        <v>40.24551896985096</v>
       </c>
       <c r="G16">
-        <v>2.079764380074884</v>
+        <v>3.692577753022708</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.361609179838718</v>
+        <v>10.94308431399079</v>
       </c>
       <c r="K16">
-        <v>24.95353850813666</v>
+        <v>20.31668182295452</v>
       </c>
       <c r="L16">
-        <v>5.55174500435067</v>
+        <v>9.684066040130334</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.34736685800258</v>
+        <v>18.44037797632142</v>
       </c>
       <c r="O16">
-        <v>20.71255408820183</v>
+        <v>30.73986974223978</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.94748601374146</v>
+        <v>13.8518450773513</v>
       </c>
       <c r="D17">
-        <v>6.56151017853032</v>
+        <v>8.387345261186759</v>
       </c>
       <c r="E17">
-        <v>10.00958424439094</v>
+        <v>14.32263249091844</v>
       </c>
       <c r="F17">
-        <v>29.0640396569286</v>
+        <v>40.25342093161373</v>
       </c>
       <c r="G17">
-        <v>2.082610283289745</v>
+        <v>3.693560044518064</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.353634622824655</v>
+        <v>10.95034832375105</v>
       </c>
       <c r="K17">
-        <v>24.42402916746525</v>
+        <v>20.15644108434562</v>
       </c>
       <c r="L17">
-        <v>5.544582942782259</v>
+        <v>9.688419710320643</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.39554383181202</v>
+        <v>18.4575934241142</v>
       </c>
       <c r="O17">
-        <v>20.57774325285029</v>
+        <v>30.762420671254</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.84019559043675</v>
+        <v>13.83633889124793</v>
       </c>
       <c r="D18">
-        <v>6.507999209049006</v>
+        <v>8.379059953774458</v>
       </c>
       <c r="E18">
-        <v>9.952002521771037</v>
+        <v>14.31954921755663</v>
       </c>
       <c r="F18">
-        <v>28.9032149256124</v>
+        <v>40.2589220683708</v>
       </c>
       <c r="G18">
-        <v>2.084255899199528</v>
+        <v>3.694132865519913</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.349376696758149</v>
+        <v>10.95465091514766</v>
       </c>
       <c r="K18">
-        <v>24.11482932586134</v>
+        <v>20.06391314064859</v>
       </c>
       <c r="L18">
-        <v>5.540638247620128</v>
+        <v>9.69100474055338</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.42368581784445</v>
+        <v>18.46768163294011</v>
       </c>
       <c r="O18">
-        <v>20.50239954829771</v>
+        <v>30.77608359585642</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.80378779300347</v>
+        <v>13.83113169365063</v>
       </c>
       <c r="D19">
-        <v>6.489821649749753</v>
+        <v>8.376269734069965</v>
       </c>
       <c r="E19">
-        <v>9.932529989145451</v>
+        <v>14.31854153272776</v>
       </c>
       <c r="F19">
-        <v>28.8491409309957</v>
+        <v>40.26094880790968</v>
       </c>
       <c r="G19">
-        <v>2.084814613924284</v>
+        <v>3.694328160085543</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.347990897537368</v>
+        <v>10.956129093925</v>
       </c>
       <c r="K19">
-        <v>24.0093396413411</v>
+        <v>20.03252563325582</v>
       </c>
       <c r="L19">
-        <v>5.539332484415</v>
+        <v>9.691893897168056</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.43328757468026</v>
+        <v>18.47112935182809</v>
       </c>
       <c r="O19">
-        <v>20.47726321351552</v>
+        <v>30.78082839873802</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.96730399953246</v>
+        <v>13.85473523665755</v>
       </c>
       <c r="D20">
-        <v>6.571385215995518</v>
+        <v>8.388885794208015</v>
       </c>
       <c r="E20">
-        <v>10.02025228419125</v>
+        <v>14.32322034182938</v>
       </c>
       <c r="F20">
-        <v>29.0939844821341</v>
+        <v>40.25248078200058</v>
       </c>
       <c r="G20">
-        <v>2.082306437968608</v>
+        <v>3.693454667687043</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.354449348840443</v>
+        <v>10.94956217152282</v>
       </c>
       <c r="K20">
-        <v>24.4808758557337</v>
+        <v>20.17353712679531</v>
       </c>
       <c r="L20">
-        <v>5.545327232203809</v>
+        <v>9.687947883391059</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.39037041965008</v>
+        <v>18.45574152989271</v>
       </c>
       <c r="O20">
-        <v>20.59186602251336</v>
+        <v>30.75994841532183</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.51075127032614</v>
+        <v>13.93697745046404</v>
       </c>
       <c r="D21">
-        <v>6.841104906678892</v>
+        <v>8.432298039871021</v>
       </c>
       <c r="E21">
-        <v>10.31647104266928</v>
+        <v>14.34145255039013</v>
       </c>
       <c r="F21">
-        <v>29.94295496976913</v>
+        <v>40.23545730751543</v>
       </c>
       <c r="G21">
-        <v>2.073980645402986</v>
+        <v>3.690613298564058</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.380123846020849</v>
+        <v>10.92898541954206</v>
       </c>
       <c r="K21">
-        <v>26.00996009349684</v>
+        <v>20.64277868315912</v>
       </c>
       <c r="L21">
-        <v>5.567569077265363</v>
+        <v>9.675655623668773</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.25139758814697</v>
+        <v>18.40626537470196</v>
       </c>
       <c r="O21">
-        <v>21.00339824941284</v>
+        <v>30.69807364515523</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.86118771643725</v>
+        <v>13.99285755567836</v>
       </c>
       <c r="D22">
-        <v>7.013979064098597</v>
+        <v>8.461406758167099</v>
       </c>
       <c r="E22">
-        <v>10.51099843425472</v>
+        <v>14.35522789085492</v>
       </c>
       <c r="F22">
-        <v>30.51744310803282</v>
+        <v>40.23285655466084</v>
       </c>
       <c r="G22">
-        <v>2.068607860738619</v>
+        <v>3.688825626095949</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.39997326394323</v>
+        <v>10.91664438309813</v>
       </c>
       <c r="K22">
-        <v>26.96867949286538</v>
+        <v>20.94559042508254</v>
       </c>
       <c r="L22">
-        <v>5.583700162022319</v>
+        <v>9.668339587674648</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.1646145961164</v>
+        <v>18.37558460956905</v>
       </c>
       <c r="O22">
-        <v>21.2926479938567</v>
+        <v>30.66382421315379</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.67460378981728</v>
+        <v>13.96284229303565</v>
       </c>
       <c r="D23">
-        <v>6.922034809726482</v>
+        <v>8.445805268255986</v>
       </c>
       <c r="E23">
-        <v>10.40710064314297</v>
+        <v>14.34770643664496</v>
       </c>
       <c r="F23">
-        <v>30.20902931723182</v>
+        <v>40.23346424182025</v>
       </c>
       <c r="G23">
-        <v>2.071469602676467</v>
+        <v>3.689773417624319</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.389091372280651</v>
+        <v>10.92312982017463</v>
       </c>
       <c r="K23">
-        <v>26.46067556832601</v>
+        <v>20.78435784199534</v>
       </c>
       <c r="L23">
-        <v>5.574942846368337</v>
+        <v>9.672178766933451</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.21055200244421</v>
+        <v>18.39180831672601</v>
       </c>
       <c r="O23">
-        <v>21.13637872075173</v>
+        <v>30.68153630766781</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.95834594469703</v>
+        <v>13.85342784451141</v>
       </c>
       <c r="D24">
-        <v>6.566921888210913</v>
+        <v>8.388189060645857</v>
       </c>
       <c r="E24">
-        <v>10.01542893404209</v>
+        <v>14.32295392258409</v>
       </c>
       <c r="F24">
-        <v>29.08043979257011</v>
+        <v>40.25290283899816</v>
       </c>
       <c r="G24">
-        <v>2.082443776848821</v>
+        <v>3.693502283352015</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.354079994994414</v>
+        <v>10.94991719714838</v>
       </c>
       <c r="K24">
-        <v>24.4551903575249</v>
+        <v>20.16580925518847</v>
       </c>
       <c r="L24">
-        <v>5.544990200929536</v>
+        <v>9.688160940745233</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.39270793717924</v>
+        <v>18.45657817680704</v>
       </c>
       <c r="O24">
-        <v>20.58547439608921</v>
+        <v>30.76106394792165</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.16760110358941</v>
+        <v>13.74492803788661</v>
       </c>
       <c r="D25">
-        <v>6.170528657746789</v>
+        <v>8.329373863443818</v>
       </c>
       <c r="E25">
-        <v>9.598136515575938</v>
+        <v>14.30431754333315</v>
       </c>
       <c r="F25">
-        <v>27.94732536063848</v>
+        <v>40.31040966775379</v>
       </c>
       <c r="G25">
-        <v>2.094619395693929</v>
+        <v>3.697824202715741</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.328808677227468</v>
+        <v>10.98357358479732</v>
       </c>
       <c r="K25">
-        <v>22.114176866801</v>
+        <v>19.48520480958923</v>
       </c>
       <c r="L25">
-        <v>5.519340635676371</v>
+        <v>9.708495478408794</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.60561801449836</v>
+        <v>18.53357011474601</v>
       </c>
       <c r="O25">
-        <v>20.07468860266574</v>
+        <v>30.87329439768313</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_165/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_165/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.67358826315247</v>
+        <v>10.57287970496732</v>
       </c>
       <c r="D2">
-        <v>8.289104047263637</v>
+        <v>5.868875472582974</v>
       </c>
       <c r="E2">
-        <v>14.29759936453496</v>
+        <v>9.296792135723567</v>
       </c>
       <c r="F2">
-        <v>40.38405106556283</v>
+        <v>27.18514483005063</v>
       </c>
       <c r="G2">
-        <v>3.701267103280734</v>
+        <v>2.103920840034803</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.01246239226328</v>
+        <v>6.320209465308116</v>
       </c>
       <c r="K2">
-        <v>18.97621323937035</v>
+        <v>20.29760491262</v>
       </c>
       <c r="L2">
-        <v>9.726146552788437</v>
+        <v>5.505975397647636</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.59642389487522</v>
+        <v>12.77565407138594</v>
       </c>
       <c r="O2">
-        <v>30.97852337568994</v>
+        <v>19.76584839105124</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.63073567210559</v>
+        <v>10.1641346261762</v>
       </c>
       <c r="D3">
-        <v>8.263786884984988</v>
+        <v>5.659425577419974</v>
       </c>
       <c r="E3">
-        <v>14.29744455838229</v>
+        <v>9.097084136452956</v>
       </c>
       <c r="F3">
-        <v>40.45339490845652</v>
+        <v>26.71325155774193</v>
       </c>
       <c r="G3">
-        <v>3.703764472672328</v>
+        <v>2.11045522987014</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.03460911040082</v>
+        <v>6.320267703536195</v>
       </c>
       <c r="K3">
-        <v>18.62835538780363</v>
+        <v>19.04635667238917</v>
       </c>
       <c r="L3">
-        <v>9.739788378274355</v>
+        <v>5.500260891741595</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.64288455990328</v>
+        <v>12.89881405934496</v>
       </c>
       <c r="O3">
-        <v>31.06384755377812</v>
+        <v>19.59594563212364</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.6071832990912</v>
+        <v>9.911216385252967</v>
       </c>
       <c r="D4">
-        <v>8.249241341407334</v>
+        <v>5.528786764544735</v>
       </c>
       <c r="E4">
-        <v>14.29952732620293</v>
+        <v>8.976987827208067</v>
       </c>
       <c r="F4">
-        <v>40.50552379822315</v>
+        <v>26.44530834525511</v>
       </c>
       <c r="G4">
-        <v>3.705379283747629</v>
+        <v>2.114587493148335</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.04947621960687</v>
+        <v>6.323091584068506</v>
       </c>
       <c r="K4">
-        <v>18.41404032335869</v>
+        <v>18.23988569006475</v>
       </c>
       <c r="L4">
-        <v>9.748995781158044</v>
+        <v>5.498368611888957</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.67332379251888</v>
+        <v>12.9782448100567</v>
       </c>
       <c r="O4">
-        <v>31.12311698055277</v>
+        <v>19.51012437565836</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.59828632267558</v>
+        <v>9.807807933433022</v>
       </c>
       <c r="D5">
-        <v>8.243569005079978</v>
+        <v>5.475112849917662</v>
       </c>
       <c r="E5">
-        <v>14.30092493078742</v>
+        <v>8.928728916951171</v>
       </c>
       <c r="F5">
-        <v>40.5291628740659</v>
+        <v>26.34155591096318</v>
       </c>
       <c r="G5">
-        <v>3.706057872465073</v>
+        <v>2.116302503341686</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.0558540658845</v>
+        <v>6.324926719290391</v>
       </c>
       <c r="K5">
-        <v>18.32663210825692</v>
+        <v>17.90178365121927</v>
       </c>
       <c r="L5">
-        <v>9.752957326457066</v>
+        <v>5.497999246964326</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.6862097565437</v>
+        <v>13.01155831382016</v>
       </c>
       <c r="O5">
-        <v>31.14899517283063</v>
+        <v>19.47965582187154</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.59685150236846</v>
+        <v>9.790620961527514</v>
       </c>
       <c r="D6">
-        <v>8.242642631951226</v>
+        <v>5.466176223933338</v>
       </c>
       <c r="E6">
-        <v>14.30119018388234</v>
+        <v>8.920758060665872</v>
       </c>
       <c r="F6">
-        <v>40.53323266501042</v>
+        <v>26.32465458179934</v>
       </c>
       <c r="G6">
-        <v>3.706171794155473</v>
+        <v>2.116589181333516</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.05693240061442</v>
+        <v>6.325272292878961</v>
       </c>
       <c r="K6">
-        <v>18.31211688838039</v>
+        <v>17.84507601089277</v>
       </c>
       <c r="L6">
-        <v>9.753627800926964</v>
+        <v>5.497962041002173</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.68837858289011</v>
+        <v>13.01714670465703</v>
       </c>
       <c r="O6">
-        <v>31.15339629839092</v>
+        <v>19.47486409885147</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.60706046516416</v>
+        <v>9.909822962797312</v>
       </c>
       <c r="D7">
-        <v>8.249163804560594</v>
+        <v>5.528064567412241</v>
       </c>
       <c r="E7">
-        <v>14.29954395098973</v>
+        <v>8.976334170959852</v>
       </c>
       <c r="F7">
-        <v>40.5058329093181</v>
+        <v>26.44388716392375</v>
       </c>
       <c r="G7">
-        <v>3.705388352177326</v>
+        <v>2.114610495411088</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.04956093993566</v>
+        <v>6.323113584208298</v>
       </c>
       <c r="K7">
-        <v>18.41286165438265</v>
+        <v>18.23536399686815</v>
       </c>
       <c r="L7">
-        <v>9.749048359311011</v>
+        <v>5.498362010047027</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.6734956254477</v>
+        <v>12.97869027833358</v>
       </c>
       <c r="O7">
-        <v>31.12345900307572</v>
+        <v>19.5096954299882</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.65824439424625</v>
+        <v>10.43243229723601</v>
       </c>
       <c r="D8">
-        <v>8.280169632018088</v>
+        <v>5.797122029202086</v>
       </c>
       <c r="E8">
-        <v>14.29709477215297</v>
+        <v>9.227436445932396</v>
       </c>
       <c r="F8">
-        <v>40.40597521175071</v>
+        <v>27.01788892267766</v>
       </c>
       <c r="G8">
-        <v>3.702111338916336</v>
+        <v>2.106149506885938</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.01983539197326</v>
+        <v>6.319640732009844</v>
       </c>
       <c r="K8">
-        <v>18.85648855027079</v>
+        <v>19.87417720940059</v>
       </c>
       <c r="L8">
-        <v>9.730677980836118</v>
+        <v>5.503666701197134</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.61204718840844</v>
+        <v>12.81732040716678</v>
       </c>
       <c r="O8">
-        <v>31.00651248956358</v>
+        <v>19.70334037015752</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.78017158702268</v>
+        <v>11.43614690604908</v>
       </c>
       <c r="D9">
-        <v>8.348725397278269</v>
+        <v>6.305702650401781</v>
       </c>
       <c r="E9">
-        <v>14.30951159652516</v>
+        <v>9.737889004368999</v>
       </c>
       <c r="F9">
-        <v>40.28616645186906</v>
+        <v>28.31778578843265</v>
       </c>
       <c r="G9">
-        <v>3.696328055412074</v>
+        <v>2.090468640441362</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.97159909399153</v>
+        <v>6.335718360418485</v>
       </c>
       <c r="K9">
-        <v>19.71594459172837</v>
+        <v>22.92684464699065</v>
       </c>
       <c r="L9">
-        <v>9.701230751768215</v>
+        <v>5.527109655501222</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.50667998016993</v>
+        <v>12.53178511199197</v>
       </c>
       <c r="O9">
-        <v>30.83196895189689</v>
+        <v>20.23598347113418</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.88239416112919</v>
+        <v>12.15429972525493</v>
       </c>
       <c r="D10">
-        <v>8.40357336993042</v>
+        <v>6.664424614289485</v>
       </c>
       <c r="E10">
-        <v>14.32904139564084</v>
+        <v>10.12139019397379</v>
       </c>
       <c r="F10">
-        <v>40.24474690853583</v>
+        <v>29.38012300004251</v>
       </c>
       <c r="G10">
-        <v>3.692466726659435</v>
+        <v>2.079440795489441</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.9422723073727</v>
+        <v>6.362564162772079</v>
       </c>
       <c r="K10">
-        <v>20.3349151358831</v>
+        <v>25.01333277221043</v>
       </c>
       <c r="L10">
-        <v>9.683580210497825</v>
+        <v>5.552586051515008</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.43843880759392</v>
+        <v>12.34192868306555</v>
       </c>
       <c r="O10">
-        <v>30.73739041282923</v>
+        <v>20.72823706539</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.9315228647973</v>
+        <v>12.47580707118517</v>
       </c>
       <c r="D11">
-        <v>8.429441506685755</v>
+        <v>6.823822318420847</v>
       </c>
       <c r="E11">
-        <v>14.34016247333653</v>
+        <v>10.29721878799501</v>
       </c>
       <c r="F11">
-        <v>40.23606364546801</v>
+        <v>29.88679885554254</v>
       </c>
       <c r="G11">
-        <v>3.690793368035108</v>
+        <v>2.074515998485142</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.93025421092351</v>
+        <v>6.378283516920755</v>
       </c>
       <c r="K11">
-        <v>20.61258793983411</v>
+        <v>25.91325652323034</v>
       </c>
       <c r="L11">
-        <v>9.676410270997026</v>
+        <v>5.56603550810832</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.40937484329884</v>
+        <v>12.26017042904817</v>
       </c>
       <c r="O11">
-        <v>30.70172267864775</v>
+        <v>20.97556023139691</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.95049325150053</v>
+        <v>12.59674528810234</v>
       </c>
       <c r="D12">
-        <v>8.439363962761004</v>
+        <v>6.883601041601022</v>
       </c>
       <c r="E12">
-        <v>14.34469302957848</v>
+        <v>10.36396322253102</v>
       </c>
       <c r="F12">
-        <v>40.23423804157484</v>
+        <v>30.08203410220301</v>
       </c>
       <c r="G12">
-        <v>3.690171602203706</v>
+        <v>2.072662972335766</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.92589317127829</v>
+        <v>6.384760994470627</v>
       </c>
       <c r="K12">
-        <v>20.71708050054399</v>
+        <v>26.24705964468074</v>
       </c>
       <c r="L12">
-        <v>9.673818329390745</v>
+        <v>5.571401643373567</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.39865289741028</v>
+        <v>12.22990141712415</v>
       </c>
       <c r="O12">
-        <v>30.6892776800666</v>
+        <v>21.07268896560357</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.94639153011275</v>
+        <v>12.57073594036587</v>
       </c>
       <c r="D13">
-        <v>8.437221431116818</v>
+        <v>6.870753016359354</v>
       </c>
       <c r="E13">
-        <v>14.34370313539469</v>
+        <v>10.34958192035862</v>
       </c>
       <c r="F13">
-        <v>40.2345661522551</v>
+        <v>30.03983682840258</v>
       </c>
       <c r="G13">
-        <v>3.690304982387393</v>
+        <v>2.073061548052144</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.92682395531111</v>
+        <v>6.383342272588169</v>
       </c>
       <c r="K13">
-        <v>20.69460679982938</v>
+        <v>26.17547788294952</v>
       </c>
       <c r="L13">
-        <v>9.67437107959101</v>
+        <v>5.570233710636822</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.40094944215613</v>
+        <v>12.23638916580248</v>
       </c>
       <c r="O13">
-        <v>30.69191066225563</v>
+        <v>21.05161442138045</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.93307629362988</v>
+        <v>12.48577326831413</v>
       </c>
       <c r="D14">
-        <v>8.430255323035286</v>
+        <v>6.828752197480998</v>
       </c>
       <c r="E14">
-        <v>14.34052882135024</v>
+        <v>10.30270683151218</v>
       </c>
       <c r="F14">
-        <v>40.23588413332364</v>
+        <v>29.9027934508111</v>
       </c>
       <c r="G14">
-        <v>3.690741976872415</v>
+        <v>2.074363318576686</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.92989162018156</v>
+        <v>6.378805782443514</v>
       </c>
       <c r="K14">
-        <v>20.62119828217447</v>
+        <v>25.94085797157186</v>
       </c>
       <c r="L14">
-        <v>9.676194564530977</v>
+        <v>5.566471476401381</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.4084870554154</v>
+        <v>12.25766615424631</v>
       </c>
       <c r="O14">
-        <v>30.70067752486339</v>
+        <v>20.98348086538609</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.92496769733719</v>
+        <v>12.43362410744737</v>
       </c>
       <c r="D15">
-        <v>8.426004731244481</v>
+        <v>6.802948737530408</v>
       </c>
       <c r="E15">
-        <v>14.33862596226517</v>
+        <v>10.27401461417991</v>
       </c>
       <c r="F15">
-        <v>40.23688193940313</v>
+        <v>29.8192891666588</v>
       </c>
       <c r="G15">
-        <v>3.691011196341382</v>
+        <v>2.075162197880935</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.93179538292256</v>
+        <v>6.376096032818985</v>
       </c>
       <c r="K15">
-        <v>20.57614526260617</v>
+        <v>25.79624077060184</v>
       </c>
       <c r="L15">
-        <v>9.677327528112974</v>
+        <v>5.564202738913901</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.41314101984465</v>
+        <v>12.2707898228798</v>
       </c>
       <c r="O15">
-        <v>30.70618583816649</v>
+        <v>20.94220249839773</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.87923539133472</v>
+        <v>12.13317829637529</v>
       </c>
       <c r="D16">
-        <v>8.401900849731755</v>
+        <v>6.653928063972388</v>
       </c>
       <c r="E16">
-        <v>14.32835941714247</v>
+        <v>10.10992385905323</v>
       </c>
       <c r="F16">
-        <v>40.24551896985096</v>
+        <v>29.34748169796297</v>
       </c>
       <c r="G16">
-        <v>3.692577753022708</v>
+        <v>2.079764380074882</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.94308431399079</v>
+        <v>6.361609179838783</v>
       </c>
       <c r="K16">
-        <v>20.31668182295452</v>
+        <v>24.95353850813663</v>
       </c>
       <c r="L16">
-        <v>9.684066040130334</v>
+        <v>5.551745004350672</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.44037797632142</v>
+        <v>12.34736685800262</v>
       </c>
       <c r="O16">
-        <v>30.73986974223978</v>
+        <v>20.71255408820186</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.8518450773513</v>
+        <v>11.94748601374146</v>
       </c>
       <c r="D17">
-        <v>8.387345261186759</v>
+        <v>6.561510178530281</v>
       </c>
       <c r="E17">
-        <v>14.32263249091844</v>
+        <v>10.00958424439093</v>
       </c>
       <c r="F17">
-        <v>40.25342093161373</v>
+        <v>29.06403965692851</v>
       </c>
       <c r="G17">
-        <v>3.693560044518064</v>
+        <v>2.082610283289612</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.95034832375105</v>
+        <v>6.353634622824704</v>
       </c>
       <c r="K17">
-        <v>20.15644108434562</v>
+        <v>24.42402916746527</v>
       </c>
       <c r="L17">
-        <v>9.688419710320643</v>
+        <v>5.544582942782317</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.4575934241142</v>
+        <v>12.39554383181199</v>
       </c>
       <c r="O17">
-        <v>30.762420671254</v>
+        <v>20.57774325285024</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.83633889124793</v>
+        <v>11.84019559043674</v>
       </c>
       <c r="D18">
-        <v>8.379059953774458</v>
+        <v>6.507999209048992</v>
       </c>
       <c r="E18">
-        <v>14.31954921755663</v>
+        <v>9.95200252177106</v>
       </c>
       <c r="F18">
-        <v>40.2589220683708</v>
+        <v>28.90321492561228</v>
       </c>
       <c r="G18">
-        <v>3.694132865519913</v>
+        <v>2.08425589919939</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.95465091514766</v>
+        <v>6.349376696758252</v>
       </c>
       <c r="K18">
-        <v>20.06391314064859</v>
+        <v>24.11482932586142</v>
       </c>
       <c r="L18">
-        <v>9.69100474055338</v>
+        <v>5.540638247620238</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.46768163294011</v>
+        <v>12.42368581784441</v>
       </c>
       <c r="O18">
-        <v>30.77608359585642</v>
+        <v>20.5023995482976</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.83113169365063</v>
+        <v>11.80378779300342</v>
       </c>
       <c r="D19">
-        <v>8.376269734069965</v>
+        <v>6.489821649749697</v>
       </c>
       <c r="E19">
-        <v>14.31854153272776</v>
+        <v>9.932529989145443</v>
       </c>
       <c r="F19">
-        <v>40.26094880790968</v>
+        <v>28.84914093099564</v>
       </c>
       <c r="G19">
-        <v>3.694328160085543</v>
+        <v>2.084814613924419</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.956129093925</v>
+        <v>6.347990897537417</v>
       </c>
       <c r="K19">
-        <v>20.03252563325582</v>
+        <v>24.00933964134108</v>
       </c>
       <c r="L19">
-        <v>9.691893897168056</v>
+        <v>5.539332484415053</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.47112935182809</v>
+        <v>12.43328757468022</v>
       </c>
       <c r="O19">
-        <v>30.78082839873802</v>
+        <v>20.47726321351548</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.85473523665755</v>
+        <v>11.96730399953248</v>
       </c>
       <c r="D20">
-        <v>8.388885794208015</v>
+        <v>6.571385215995518</v>
       </c>
       <c r="E20">
-        <v>14.32322034182938</v>
+        <v>10.02025228419125</v>
       </c>
       <c r="F20">
-        <v>40.25248078200058</v>
+        <v>29.09398448213417</v>
       </c>
       <c r="G20">
-        <v>3.693454667687043</v>
+        <v>2.082306437968607</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.94956217152282</v>
+        <v>6.354449348840443</v>
       </c>
       <c r="K20">
-        <v>20.17353712679531</v>
+        <v>24.4808758557337</v>
       </c>
       <c r="L20">
-        <v>9.687947883391059</v>
+        <v>5.545327232203829</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.45574152989271</v>
+        <v>12.39037041965007</v>
       </c>
       <c r="O20">
-        <v>30.75994841532183</v>
+        <v>20.59186602251343</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.93697745046404</v>
+        <v>12.51075127032614</v>
       </c>
       <c r="D21">
-        <v>8.432298039871021</v>
+        <v>6.841104906678893</v>
       </c>
       <c r="E21">
-        <v>14.34145255039013</v>
+        <v>10.31647104266931</v>
       </c>
       <c r="F21">
-        <v>40.23545730751543</v>
+        <v>29.9429549697691</v>
       </c>
       <c r="G21">
-        <v>3.690613298564058</v>
+        <v>2.07398064540285</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.92898541954206</v>
+        <v>6.380123846020849</v>
       </c>
       <c r="K21">
-        <v>20.64277868315912</v>
+        <v>26.00996009349686</v>
       </c>
       <c r="L21">
-        <v>9.675655623668773</v>
+        <v>5.567569077265417</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.40626537470196</v>
+        <v>12.25139758814694</v>
       </c>
       <c r="O21">
-        <v>30.69807364515523</v>
+        <v>21.0033982494128</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.99285755567836</v>
+        <v>12.86118771643721</v>
       </c>
       <c r="D22">
-        <v>8.461406758167099</v>
+        <v>7.01397906409849</v>
       </c>
       <c r="E22">
-        <v>14.35522789085492</v>
+        <v>10.51099843425467</v>
       </c>
       <c r="F22">
-        <v>40.23285655466084</v>
+        <v>30.51744310803272</v>
       </c>
       <c r="G22">
-        <v>3.688825626095949</v>
+        <v>2.068607860738753</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.91664438309813</v>
+        <v>6.399973263943252</v>
       </c>
       <c r="K22">
-        <v>20.94559042508254</v>
+        <v>26.96867949286539</v>
       </c>
       <c r="L22">
-        <v>9.668339587674648</v>
+        <v>5.583700162022267</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.37558460956905</v>
+        <v>12.16461459611634</v>
       </c>
       <c r="O22">
-        <v>30.66382421315379</v>
+        <v>21.29264799385664</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.96284229303565</v>
+        <v>12.67460378981721</v>
       </c>
       <c r="D23">
-        <v>8.445805268255986</v>
+        <v>6.922034809726433</v>
       </c>
       <c r="E23">
-        <v>14.34770643664496</v>
+        <v>10.40710064314293</v>
       </c>
       <c r="F23">
-        <v>40.23346424182025</v>
+        <v>30.20902931723168</v>
       </c>
       <c r="G23">
-        <v>3.689773417624319</v>
+        <v>2.071469602676334</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.92312982017463</v>
+        <v>6.389091372280681</v>
       </c>
       <c r="K23">
-        <v>20.78435784199534</v>
+        <v>26.46067556832607</v>
       </c>
       <c r="L23">
-        <v>9.672178766933451</v>
+        <v>5.57494284636827</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.39180831672601</v>
+        <v>12.21055200244414</v>
       </c>
       <c r="O23">
-        <v>30.68153630766781</v>
+        <v>21.13637872075163</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.85342784451141</v>
+        <v>11.95834594469703</v>
       </c>
       <c r="D24">
-        <v>8.388189060645857</v>
+        <v>6.566921888210844</v>
       </c>
       <c r="E24">
-        <v>14.32295392258409</v>
+        <v>10.01542893404209</v>
       </c>
       <c r="F24">
-        <v>40.25290283899816</v>
+        <v>29.08043979256995</v>
       </c>
       <c r="G24">
-        <v>3.693502283352015</v>
+        <v>2.082443776848818</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.94991719714838</v>
+        <v>6.354079994994395</v>
       </c>
       <c r="K24">
-        <v>20.16580925518847</v>
+        <v>24.45519035752493</v>
       </c>
       <c r="L24">
-        <v>9.688160940745233</v>
+        <v>5.544990200929433</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.45657817680704</v>
+        <v>12.39270793717915</v>
       </c>
       <c r="O24">
-        <v>30.76106394792165</v>
+        <v>20.58547439608908</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.74492803788661</v>
+        <v>11.16760110358944</v>
       </c>
       <c r="D25">
-        <v>8.329373863443818</v>
+        <v>6.170528657746702</v>
       </c>
       <c r="E25">
-        <v>14.30431754333315</v>
+        <v>9.598136515575836</v>
       </c>
       <c r="F25">
-        <v>40.31040966775379</v>
+        <v>27.94732536063828</v>
       </c>
       <c r="G25">
-        <v>3.697824202715741</v>
+        <v>2.094619395694063</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.98357358479732</v>
+        <v>6.328808677227476</v>
       </c>
       <c r="K25">
-        <v>19.48520480958923</v>
+        <v>22.11417686680102</v>
       </c>
       <c r="L25">
-        <v>9.708495478408794</v>
+        <v>5.519340635676348</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.53357011474601</v>
+        <v>12.60561801449833</v>
       </c>
       <c r="O25">
-        <v>30.87329439768313</v>
+        <v>20.07468860266565</v>
       </c>
     </row>
   </sheetData>
